--- a/ChalkeeWebTest_Jegyzokonyv.xlsx
+++ b/ChalkeeWebTest_Jegyzokonyv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barnu\RiderProjects\ChalkeeWebTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barnu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74A74FF-E842-4034-BD3A-953175D26F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB61BC31-3C9C-4C42-A4AF-A1824744A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="3">
-        <v>45757.017361053244</v>
+        <v>45756.017361111109</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>38</v>
@@ -629,7 +629,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="3">
-        <v>45758.017361053244</v>
+        <v>45756.017361053244</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>38</v>
@@ -661,7 +661,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="3">
-        <v>45759.017361053244</v>
+        <v>45756.017361053244</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>38</v>
@@ -693,7 +693,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="3">
-        <v>45760.017361053244</v>
+        <v>45756.017361053244</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>38</v>
@@ -725,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="3">
-        <v>45761.017361053244</v>
+        <v>45756.017361053244</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>38</v>
@@ -757,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="3">
-        <v>45762.017361053244</v>
+        <v>45756.017361053244</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>38</v>
@@ -789,7 +789,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="3">
-        <v>45763.017361053244</v>
+        <v>45756.017361053244</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>38</v>
